--- a/hebrewOutputs/hebrew82Comperation_11_Common_alpha=0.08.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_11_Common_alpha=0.08.xlsx
@@ -34,15 +34,15 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שלום, </t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלום, </t>
-  </si>
-  <si>
     <t>הורה:</t>
   </si>
   <si>
@@ -127,61 +127,61 @@
     <t>..ילדה קטנה</t>
   </si>
   <si>
+    <t>כמה?</t>
+  </si>
+  <si>
+    <t>בת שנתיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בת שנתיים, </t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>OK אני רוצה להסביר לך, בקשר למשפחה שלכם, יש אנשים שהם חולים בסוכרת אולי? אמא...</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אמא שלך? </t>
+  </si>
+  <si>
+    <t>מצד של אבא?</t>
+  </si>
+  <si>
+    <t>אף אחד,</t>
+  </si>
+  <si>
+    <t>למה אתה שואל?</t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>יש לך איזה מחלות של סוכרת?</t>
+  </si>
+  <si>
+    <t>לא, בכלל לא,</t>
+  </si>
+  <si>
+    <t>אה,</t>
+  </si>
+  <si>
+    <t>למה?</t>
+  </si>
+  <si>
+    <t>אז OK, הילד, הילד שלך קודם כל יש לו מחלה של סוכרת ב....</t>
+  </si>
+  <si>
+    <t>לבן שלי?</t>
+  </si>
+  <si>
     <t>disagree</t>
-  </si>
-  <si>
-    <t>כמה?</t>
-  </si>
-  <si>
-    <t>בת שנתיים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בת שנתיים, </t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>OK אני רוצה להסביר לך, בקשר למשפחה שלכם, יש אנשים שהם חולים בסוכרת אולי? אמא...</t>
-  </si>
-  <si>
-    <t>לא</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אמא שלך? </t>
-  </si>
-  <si>
-    <t>מצד של אבא?</t>
-  </si>
-  <si>
-    <t>אף אחד,</t>
-  </si>
-  <si>
-    <t>למה אתה שואל?</t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>יש לך איזה מחלות של סוכרת?</t>
-  </si>
-  <si>
-    <t>לא, בכלל לא,</t>
-  </si>
-  <si>
-    <t>אה,</t>
-  </si>
-  <si>
-    <t>למה?</t>
-  </si>
-  <si>
-    <t>אז OK, הילד, הילד שלך קודם כל יש לו מחלה של סוכרת ב....</t>
-  </si>
-  <si>
-    <t>לבן שלי?</t>
   </si>
   <si>
     <t>כן,</t>
@@ -886,21 +886,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -928,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -942,10 +942,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -956,10 +956,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -970,7 +970,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -984,10 +984,10 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -998,10 +998,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1026,10 +1026,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1043,7 +1043,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1082,10 +1082,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1110,10 +1110,10 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1138,10 +1138,10 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1152,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1160,27 +1160,27 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1188,41 +1188,41 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1230,27 +1230,27 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1258,21 +1258,21 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1300,21 +1300,21 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -1328,27 +1328,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -1365,18 +1365,18 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
         <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1390,10 +1390,10 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1401,10 +1401,10 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1418,10 +1418,10 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1429,10 +1429,10 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1446,10 +1446,10 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1471,10 +1471,10 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1488,10 +1488,10 @@
         <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1516,10 +1516,10 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1541,10 +1541,10 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1569,13 +1569,13 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1600,10 +1600,10 @@
         <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1611,10 +1611,10 @@
         <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -1628,10 +1628,10 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1642,10 +1642,10 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1656,7 +1656,7 @@
         <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1667,10 +1667,10 @@
         <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1684,7 +1684,7 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1698,7 +1698,7 @@
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1709,13 +1709,13 @@
         <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1723,7 +1723,7 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -1740,10 +1740,10 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1754,10 +1754,10 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1768,10 +1768,10 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1782,7 +1782,7 @@
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -1796,10 +1796,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1810,10 +1810,10 @@
         <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1821,13 +1821,13 @@
         <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1835,10 +1835,10 @@
         <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1866,7 +1866,7 @@
         <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1877,10 +1877,10 @@
         <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -1894,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -1902,16 +1902,16 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1933,13 +1933,13 @@
         <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1961,13 +1961,13 @@
         <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1978,10 +1978,10 @@
         <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1992,10 +1992,10 @@
         <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2006,7 +2006,7 @@
         <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -2017,10 +2017,10 @@
         <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -2031,10 +2031,10 @@
         <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -2045,13 +2045,13 @@
         <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2062,7 +2062,7 @@
         <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -2093,7 +2093,7 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2104,7 +2104,7 @@
         <v>33</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -2118,10 +2118,10 @@
         <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2132,10 +2132,10 @@
         <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2149,7 +2149,7 @@
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2163,7 +2163,7 @@
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2174,7 +2174,7 @@
         <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2185,13 +2185,13 @@
         <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2202,7 +2202,7 @@
         <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2219,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2233,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2244,7 +2244,7 @@
         <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -2261,7 +2261,7 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2272,10 +2272,10 @@
         <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2286,7 +2286,7 @@
         <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -2300,7 +2300,7 @@
         <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -2314,10 +2314,10 @@
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2331,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2342,7 +2342,7 @@
         <v>93</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2356,10 +2356,10 @@
         <v>79</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2370,10 +2370,10 @@
         <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2384,7 +2384,7 @@
         <v>93</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -2398,7 +2398,7 @@
         <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -2426,10 +2426,10 @@
         <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2448,16 +2448,16 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B114" t="s">
         <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2465,10 +2465,10 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2482,10 +2482,10 @@
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2496,7 +2496,7 @@
         <v>108</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -2513,7 +2513,7 @@
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2535,13 +2535,13 @@
         <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2566,10 +2566,10 @@
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2577,13 +2577,13 @@
         <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2594,10 +2594,10 @@
         <v>147</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2608,10 +2608,10 @@
         <v>147</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2625,7 +2625,7 @@
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2636,10 +2636,10 @@
         <v>151</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2650,7 +2650,7 @@
         <v>93</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -2664,10 +2664,10 @@
         <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>93</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -2692,10 +2692,10 @@
         <v>156</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2703,10 +2703,10 @@
         <v>157</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -2720,10 +2720,10 @@
         <v>101</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2734,7 +2734,7 @@
         <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -2748,10 +2748,10 @@
         <v>156</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2762,7 +2762,7 @@
         <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -2770,16 +2770,16 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>93</v>
       </c>
       <c r="C138" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -2804,10 +2804,10 @@
         <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2821,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2832,10 +2832,10 @@
         <v>111</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>167</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -2863,7 +2863,7 @@
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2874,10 +2874,10 @@
         <v>25</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2888,10 +2888,10 @@
         <v>151</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
